--- a/biology/Zoologie/Chrysopelea/Chrysopelea.xlsx
+++ b/biology/Zoologie/Chrysopelea/Chrysopelea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chrysopelea est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrysopelea est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont ovipares. Elles sont communément appelés « serpents volants ». Comme tous les animaux dits « volants », excepté les oiseaux, les insectes et les chauves-souris, il s'agit en fait d'un vol plané. Ces serpents se jettent d'une branche en aplatissant les côtes, pour augmenter leur portance, la réception se faisant sur une autre branche ou au sol.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sous-continent indien et en Asie du Sud-Est[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sous-continent indien et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 août 2011) :
 Chrysopelea ornata (Shaw, 1802)
 Chrysopelea paradisi Boie, 1827
 Chrysopelea pelias (Linnaeus, 1758)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boie, 1827 : Bemerkungen über Merrem's Versuch eines Systems der Amphibien, 1. Lieferung: Ophidier. Isis von Oken, Jena, vol. 20, p. 508-566 (texte intégral)</t>
         </is>
